--- a/config/email_farmaconde.xlsx
+++ b/config/email_farmaconde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BI - SENFF SHOPPING\Relatorios_API-VTEX\VENDAS_FATURADAS\github\Farma Conde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487D8D11-F15A-4236-9318-31D930AFD911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA447231-AFCF-4DB7-A37A-9F4ED64E9E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>sim</t>
   </si>
   <si>
-    <t>a.chagas@senff.com.br</t>
+    <t>a.chagas@senff.com.br; l.ruiz@senff.com.br</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{618DCFC0-202C-4BF5-809F-D25B17FB95FC}"/>
+    <hyperlink ref="C2" r:id="rId1" display="a.chagas@senff.com.br" xr:uid="{618DCFC0-202C-4BF5-809F-D25B17FB95FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/config/email_farmaconde.xlsx
+++ b/config/email_farmaconde.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BI - SENFF SHOPPING\Relatorios_API-VTEX\VENDAS_FATURADAS\github\Farma Conde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BI - SENFF SHOPPING\Relatorios_API-VTEX\VENDAS_FATURADAS\FARMA CONDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA447231-AFCF-4DB7-A37A-9F4ED64E9E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C5D9C4-A787-4B56-B8C3-3FC77C0A0A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,14 +54,14 @@
     <t>sim</t>
   </si>
   <si>
-    <t>a.chagas@senff.com.br; l.ruiz@senff.com.br</t>
+    <t>a.chagas@senff.com.br;l.ruiz@senff.com.br;samir.nadir@grupofarmaconde.com.br;danilo.fernandes@grupofarmaconde.com.br;valeska.amorim@grupofarmaconde.com.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,14 +73,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,10 +99,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -392,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,12 +433,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="a.chagas@senff.com.br" xr:uid="{618DCFC0-202C-4BF5-809F-D25B17FB95FC}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{618DCFC0-202C-4BF5-809F-D25B17FB95FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
